--- a/xlsx/路透社_intext.xlsx
+++ b/xlsx/路透社_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>路透社</t>
   </si>
@@ -29,37 +29,37 @@
     <t>汤森路透</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_路透社</t>
+    <t>政策_政策_维基百科_路透社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>執行長</t>
+    <t>执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%81%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>營運長</t>
+    <t>营运长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>總編輯</t>
+    <t>总编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>通訊社</t>
+    <t>通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>新聞</t>
+    <t>新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -167,13 +167,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>纽约证券交易所</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%90%BC%E6%96%AF%E9%80%9A%E8%AE%AF%E7%A4%BE</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%9E%E5%B0%94%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%9C%B1%E5%88%A9%E6%96%AF%C2%B7%E8%B7%AF%E9%80%8F</t>
   </si>
   <si>
-    <t>保羅·朱利斯·路透</t>
+    <t>保罗·朱利斯·路透</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%90%9B</t>
@@ -209,19 +206,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>布魯塞爾</t>
+    <t>布鲁塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A0%B1</t>
   </si>
   <si>
-    <t>電報</t>
+    <t>电报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%90%8A</t>
   </si>
   <si>
-    <t>加萊</t>
+    <t>加莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -269,13 +266,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯</t>
+    <t>亚伯拉罕·林肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TIBCO%E8%BD%AF%E4%BB%B6%E5%85%AC%E5%8F%B8</t>
@@ -293,19 +290,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%A6%E9%9A%8A%E8%A1%97</t>
   </si>
   <si>
-    <t>艦隊街</t>
+    <t>舰队街</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%A0%B1%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>時報廣場</t>
+    <t>时报广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%A1%9B%E5%85%B5</t>
   </si>
   <si>
-    <t>紅衛兵</t>
+    <t>红卫兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>獅子山共和國</t>
+    <t>狮子山共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E8%87%A3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>車臣共和國</t>
+    <t>车臣共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E4%BB%A5%E9%BB%8E%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>2006年以黎衝突</t>
+    <t>2006年以黎冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -395,25 +392,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%81%AB%E9%95%B7%E5%9F%8E</t>
   </si>
   <si>
-    <t>防火長城</t>
+    <t>防火长城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8F%AF%E6%97%A9%E5%A0%B1</t>
   </si>
   <si>
-    <t>南華早報</t>
+    <t>南华早报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%B6%E5%AF%B6</t>
   </si>
   <si>
-    <t>溫家寶</t>
+    <t>温家宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%A6%82%E6%98%A5</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E7%A4%BE</t>
@@ -461,19 +458,19 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E4%B8%AD%E6%96%87%E7%B6%B2</t>
   </si>
   <si>
-    <t>BBC中文網</t>
+    <t>BBC中文网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Newtalk_%E6%96%B0%E9%A0%AD%E6%AE%BC</t>
   </si>
   <si>
-    <t>Newtalk 新頭殼</t>
+    <t>Newtalk 新头壳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E4%B8%AD%E6%96%87%E7%B6%B2</t>
   </si>
   <si>
-    <t>紐約時報中文網</t>
+    <t>纽约时报中文网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Reuters</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%96%B0%E8%81%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯合新聞網</t>
+    <t>联合新闻网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Oxford_University_Press</t>
@@ -497,33 +494,30 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AE%E7%B0%A1%E5%A0%B1%E5%AE%A4%E5%BA%A7%E6%AC%A1%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-白宮簡報室座次表</t>
+    <t>Template talk-白宫简报室座次表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
   </si>
   <si>
-    <t>华尔街日报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%B0%E7%A4%BE</t>
   </si>
   <si>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -665,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -701,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -725,13 +719,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
   </si>
   <si>
-    <t>纽约时报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -755,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -779,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -815,19 +806,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1885,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1920,10 +1911,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1949,10 +1940,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1978,10 +1969,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2007,10 +1998,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2036,10 +2027,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2065,10 +2056,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2094,10 +2085,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2123,10 +2114,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2152,10 +2143,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -2181,10 +2172,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2210,10 +2201,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2239,10 +2230,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2268,10 +2259,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2297,10 +2288,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2326,10 +2317,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2355,10 +2346,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2384,10 +2375,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2413,10 +2404,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>7</v>
@@ -2442,10 +2433,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2471,10 +2462,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2500,10 +2491,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2529,10 +2520,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>7</v>
@@ -2558,10 +2549,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2587,10 +2578,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2616,10 +2607,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2645,10 +2636,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2674,10 +2665,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2703,10 +2694,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2732,10 +2723,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2761,10 +2752,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2790,10 +2781,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2819,10 +2810,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2848,10 +2839,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2877,10 +2868,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2906,10 +2897,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2935,10 +2926,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2964,10 +2955,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2993,10 +2984,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3022,10 +3013,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3051,10 +3042,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3080,10 +3071,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3109,10 +3100,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3138,10 +3129,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3167,10 +3158,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3196,10 +3187,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3225,10 +3216,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3254,10 +3245,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3283,10 +3274,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3312,10 +3303,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3341,10 +3332,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3370,10 +3361,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3399,10 +3390,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>12</v>
@@ -3428,10 +3419,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3457,10 +3448,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3486,10 +3477,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3515,10 +3506,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3544,10 +3535,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3573,10 +3564,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3602,10 +3593,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3631,10 +3622,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3660,10 +3651,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3689,10 +3680,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3718,10 +3709,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3747,10 +3738,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3776,10 +3767,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3805,10 +3796,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3834,10 +3825,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3863,10 +3854,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3892,10 +3883,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3921,10 +3912,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3950,10 +3941,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3979,10 +3970,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4008,10 +3999,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4037,10 +4028,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4066,10 +4057,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4095,10 +4086,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4124,10 +4115,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4153,10 +4144,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4182,10 +4173,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4211,10 +4202,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4240,10 +4231,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4269,10 +4260,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4298,10 +4289,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4327,10 +4318,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4356,10 +4347,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4385,10 +4376,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4414,10 +4405,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4443,10 +4434,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4472,10 +4463,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4501,10 +4492,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4530,10 +4521,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4559,10 +4550,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4588,10 +4579,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4617,10 +4608,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4646,10 +4637,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4675,10 +4666,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4704,10 +4695,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4733,10 +4724,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4762,10 +4753,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4791,10 +4782,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4820,10 +4811,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4849,10 +4840,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4878,10 +4869,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4907,10 +4898,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4936,10 +4927,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4965,10 +4956,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4994,10 +4985,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5023,10 +5014,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5052,10 +5043,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5081,10 +5072,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5110,10 +5101,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
